--- a/3. DATA VALIDATION/Exercises+and+Datasets/Exercises/1_1_data_validation_basics.xlsx
+++ b/3. DATA VALIDATION/Exercises+and+Datasets/Exercises/1_1_data_validation_basics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UBT\other things\DataCamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\portfolio\DataCamp\3. DATA VALIDATION\Exercises+and+Datasets\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94500670-D738-403C-A121-BBEB794169FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B8F6CF-6968-4227-B63A-1395A41708C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FFFDE9C1-C3D1-4067-8FD7-9825A0D58377}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FFFDE9C1-C3D1-4067-8FD7-9825A0D58377}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7082916-41E7-4DF0-B597-B8222BF7BBB3}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,6 +1503,11 @@
       <c r="F56" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You have inputed a value that is not an integer" promptTitle="Quantity on Hand" prompt="This input should be Whole number integers" sqref="C2:C31" xr:uid="{032DAEF2-CD7D-4141-8033-4828AFAD2723}">
+      <formula1>1000</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
